--- a/Ausbruchsdaten/raw_data/Ausbruchsdaten_2021-04-06.xlsx
+++ b/Ausbruchsdaten/raw_data/Ausbruchsdaten_2021-04-06.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-03-30\Webmaster_Tabellen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBE6527-30BC-4F30-A59A-B49BEA51A0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326E74D-FD8B-4F2B-A3E4-001CF0E3619D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ausbruch_MW_D_alle" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="47">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -166,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,18 +995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="34" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1197,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>4778</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="E48">
-        <v>19262</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,7 +2053,7 @@
         <v>34</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2183,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="E69">
-        <v>28522</v>
+        <v>28517</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,7 +2206,7 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>27657</v>
+        <v>27654</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>19054</v>
+        <v>19060</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2948,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="E114">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,7 +3107,7 @@
         <v>44</v>
       </c>
       <c r="E124">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="E132">
-        <v>11764</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="E135">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,7 +3311,7 @@
         <v>26</v>
       </c>
       <c r="E136">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="E151">
-        <v>8219</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,7 +3634,7 @@
         <v>26</v>
       </c>
       <c r="E155">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3866,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="E168">
-        <v>4893</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3917,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="E171">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="E184">
-        <v>4045</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,7 +4416,7 @@
         <v>6</v>
       </c>
       <c r="E201">
-        <v>2955</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4495,7 +4484,7 @@
         <v>26</v>
       </c>
       <c r="E205">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4801,7 +4790,7 @@
         <v>26</v>
       </c>
       <c r="E223">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,7 +5164,7 @@
         <v>30</v>
       </c>
       <c r="E245">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7079,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="E357">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,7 +7221,7 @@
         <v>6</v>
       </c>
       <c r="E366">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,7 +7238,7 @@
         <v>24</v>
       </c>
       <c r="E367">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -7572,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="E386">
-        <v>2281</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -7589,7 +7578,7 @@
         <v>24</v>
       </c>
       <c r="E387">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -7606,7 +7595,7 @@
         <v>8</v>
       </c>
       <c r="E388">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -7912,7 +7901,7 @@
         <v>6</v>
       </c>
       <c r="E406">
-        <v>2944</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8218,7 +8207,7 @@
         <v>6</v>
       </c>
       <c r="E424">
-        <v>4072</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -8252,7 +8241,7 @@
         <v>8</v>
       </c>
       <c r="E426">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -8541,7 +8530,7 @@
         <v>22</v>
       </c>
       <c r="E443">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,7 +8853,7 @@
         <v>6</v>
       </c>
       <c r="E462">
-        <v>7084</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,7 +8887,7 @@
         <v>8</v>
       </c>
       <c r="E464">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,7 +9142,7 @@
         <v>6</v>
       </c>
       <c r="E479">
-        <v>6554</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -9187,7 +9176,7 @@
         <v>8</v>
       </c>
       <c r="E481">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -9510,7 +9499,7 @@
         <v>8</v>
       </c>
       <c r="E500">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -9816,7 +9805,7 @@
         <v>6</v>
       </c>
       <c r="E518">
-        <v>6988</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -9850,7 +9839,7 @@
         <v>8</v>
       </c>
       <c r="E520">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -10156,7 +10145,7 @@
         <v>22</v>
       </c>
       <c r="E538">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -10173,7 +10162,7 @@
         <v>6</v>
       </c>
       <c r="E539">
-        <v>8691</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -10207,7 +10196,7 @@
         <v>8</v>
       </c>
       <c r="E541">
-        <v>1441</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10496,7 +10485,7 @@
         <v>22</v>
       </c>
       <c r="E558">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -10513,7 +10502,7 @@
         <v>6</v>
       </c>
       <c r="E559">
-        <v>9397</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -10768,7 +10757,7 @@
         <v>16</v>
       </c>
       <c r="E574">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -10870,7 +10859,7 @@
         <v>6</v>
       </c>
       <c r="E580">
-        <v>11377</v>
+        <v>11382</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -10904,7 +10893,7 @@
         <v>8</v>
       </c>
       <c r="E582">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -10921,7 +10910,7 @@
         <v>10</v>
       </c>
       <c r="E583">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -11227,7 +11216,7 @@
         <v>6</v>
       </c>
       <c r="E601">
-        <v>19468</v>
+        <v>19469</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -11261,7 +11250,7 @@
         <v>8</v>
       </c>
       <c r="E603">
-        <v>2812</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -11584,7 +11573,7 @@
         <v>6</v>
       </c>
       <c r="E622">
-        <v>32905</v>
+        <v>32903</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -11618,7 +11607,7 @@
         <v>8</v>
       </c>
       <c r="E624">
-        <v>3800</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -11754,7 +11743,7 @@
         <v>12</v>
       </c>
       <c r="E632">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -11941,7 +11930,7 @@
         <v>6</v>
       </c>
       <c r="E643">
-        <v>61768</v>
+        <v>61721</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -11975,7 +11964,7 @@
         <v>8</v>
       </c>
       <c r="E645">
-        <v>5395</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -12009,7 +11998,7 @@
         <v>26</v>
       </c>
       <c r="E647">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -12077,7 +12066,7 @@
         <v>30</v>
       </c>
       <c r="E651">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -12111,7 +12100,7 @@
         <v>12</v>
       </c>
       <c r="E653">
-        <v>1105</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -12298,7 +12287,7 @@
         <v>6</v>
       </c>
       <c r="E664">
-        <v>94754</v>
+        <v>94722</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -12332,7 +12321,7 @@
         <v>8</v>
       </c>
       <c r="E666">
-        <v>7078</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -12349,7 +12338,7 @@
         <v>10</v>
       </c>
       <c r="E667">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -12366,7 +12355,7 @@
         <v>26</v>
       </c>
       <c r="E668">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -12655,7 +12644,7 @@
         <v>6</v>
       </c>
       <c r="E685">
-        <v>108317</v>
+        <v>108310</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,7 +12678,7 @@
         <v>8</v>
       </c>
       <c r="E687">
-        <v>8084</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,7 +12695,7 @@
         <v>10</v>
       </c>
       <c r="E688">
-        <v>2989</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -12791,7 +12780,7 @@
         <v>30</v>
       </c>
       <c r="E693">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -12842,7 +12831,7 @@
         <v>14</v>
       </c>
       <c r="E696">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -13012,7 +13001,7 @@
         <v>6</v>
       </c>
       <c r="E706">
-        <v>108307</v>
+        <v>108310</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -13063,7 +13052,7 @@
         <v>10</v>
       </c>
       <c r="E709">
-        <v>4518</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -13199,7 +13188,7 @@
         <v>14</v>
       </c>
       <c r="E717">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -13369,7 +13358,7 @@
         <v>6</v>
       </c>
       <c r="E727">
-        <v>106270</v>
+        <v>106254</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -13403,7 +13392,7 @@
         <v>8</v>
       </c>
       <c r="E729">
-        <v>7753</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -13420,7 +13409,7 @@
         <v>10</v>
       </c>
       <c r="E730">
-        <v>6132</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -13488,7 +13477,7 @@
         <v>40</v>
       </c>
       <c r="E734">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -13539,7 +13528,7 @@
         <v>12</v>
       </c>
       <c r="E737">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -13556,7 +13545,7 @@
         <v>14</v>
       </c>
       <c r="E738">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -13573,7 +13562,7 @@
         <v>42</v>
       </c>
       <c r="E739">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -13590,7 +13579,7 @@
         <v>44</v>
       </c>
       <c r="E740">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -13607,7 +13596,7 @@
         <v>34</v>
       </c>
       <c r="E741">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -13726,7 +13715,7 @@
         <v>6</v>
       </c>
       <c r="E748">
-        <v>100772</v>
+        <v>100754</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -13760,7 +13749,7 @@
         <v>8</v>
       </c>
       <c r="E750">
-        <v>7096</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,7 +13766,7 @@
         <v>10</v>
       </c>
       <c r="E751">
-        <v>6783</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -13913,7 +13902,7 @@
         <v>14</v>
       </c>
       <c r="E759">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -13947,7 +13936,7 @@
         <v>44</v>
       </c>
       <c r="E761">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -14083,7 +14072,7 @@
         <v>6</v>
       </c>
       <c r="E769">
-        <v>104717</v>
+        <v>104644</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
@@ -14117,7 +14106,7 @@
         <v>8</v>
       </c>
       <c r="E771">
-        <v>6583</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -14134,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="E772">
-        <v>7721</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -14151,7 +14140,7 @@
         <v>26</v>
       </c>
       <c r="E773">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -14202,7 +14191,7 @@
         <v>40</v>
       </c>
       <c r="E776">
-        <v>1380</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
@@ -14253,7 +14242,7 @@
         <v>12</v>
       </c>
       <c r="E779">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
@@ -14270,7 +14259,7 @@
         <v>14</v>
       </c>
       <c r="E780">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -14287,7 +14276,7 @@
         <v>42</v>
       </c>
       <c r="E781">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -14304,7 +14293,7 @@
         <v>44</v>
       </c>
       <c r="E782">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -14321,7 +14310,7 @@
         <v>34</v>
       </c>
       <c r="E783">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -14406,7 +14395,7 @@
         <v>20</v>
       </c>
       <c r="E788">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -14440,7 +14429,7 @@
         <v>6</v>
       </c>
       <c r="E790">
-        <v>126542</v>
+        <v>126429</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -14474,7 +14463,7 @@
         <v>8</v>
       </c>
       <c r="E792">
-        <v>7505</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -14491,7 +14480,7 @@
         <v>10</v>
       </c>
       <c r="E793">
-        <v>10131</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -14508,7 +14497,7 @@
         <v>26</v>
       </c>
       <c r="E794">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -14559,7 +14548,7 @@
         <v>40</v>
       </c>
       <c r="E797">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -14610,7 +14599,7 @@
         <v>12</v>
       </c>
       <c r="E800">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
@@ -14644,7 +14633,7 @@
         <v>42</v>
       </c>
       <c r="E802">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
@@ -14661,7 +14650,7 @@
         <v>44</v>
       </c>
       <c r="E803">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
@@ -14763,7 +14752,7 @@
         <v>20</v>
       </c>
       <c r="E809">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
@@ -14780,7 +14769,7 @@
         <v>22</v>
       </c>
       <c r="E810">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
@@ -14797,7 +14786,7 @@
         <v>6</v>
       </c>
       <c r="E811">
-        <v>143534</v>
+        <v>143489</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
@@ -14831,7 +14820,7 @@
         <v>8</v>
       </c>
       <c r="E813">
-        <v>7467</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
@@ -14848,7 +14837,7 @@
         <v>10</v>
       </c>
       <c r="E814">
-        <v>11878</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
@@ -14899,7 +14888,7 @@
         <v>28</v>
       </c>
       <c r="E817">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
@@ -14916,7 +14905,7 @@
         <v>40</v>
       </c>
       <c r="E818">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
@@ -14933,7 +14922,7 @@
         <v>30</v>
       </c>
       <c r="E819">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
@@ -14967,7 +14956,7 @@
         <v>12</v>
       </c>
       <c r="E821">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
@@ -15018,7 +15007,7 @@
         <v>44</v>
       </c>
       <c r="E824">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
@@ -15035,7 +15024,7 @@
         <v>34</v>
       </c>
       <c r="E825">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
@@ -15137,7 +15126,7 @@
         <v>6</v>
       </c>
       <c r="E831">
-        <v>115572</v>
+        <v>115525</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
@@ -15171,7 +15160,7 @@
         <v>8</v>
       </c>
       <c r="E833">
-        <v>5209</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
@@ -15188,7 +15177,7 @@
         <v>10</v>
       </c>
       <c r="E834">
-        <v>10265</v>
+        <v>10264</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
@@ -15307,7 +15296,7 @@
         <v>12</v>
       </c>
       <c r="E841">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
@@ -15358,7 +15347,7 @@
         <v>44</v>
       </c>
       <c r="E844">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
@@ -15443,7 +15432,7 @@
         <v>20</v>
       </c>
       <c r="E849">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
@@ -15460,7 +15449,7 @@
         <v>22</v>
       </c>
       <c r="E850">
-        <v>2476</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
@@ -15477,7 +15466,7 @@
         <v>6</v>
       </c>
       <c r="E851">
-        <v>99565</v>
+        <v>99541</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
@@ -15511,7 +15500,7 @@
         <v>8</v>
       </c>
       <c r="E853">
-        <v>6383</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
@@ -15528,7 +15517,7 @@
         <v>10</v>
       </c>
       <c r="E854">
-        <v>10787</v>
+        <v>10792</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
@@ -15596,7 +15585,7 @@
         <v>40</v>
       </c>
       <c r="E858">
-        <v>1366</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
@@ -15783,7 +15772,7 @@
         <v>20</v>
       </c>
       <c r="E869">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
@@ -15800,7 +15789,7 @@
         <v>22</v>
       </c>
       <c r="E870">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
@@ -15817,7 +15806,7 @@
         <v>6</v>
       </c>
       <c r="E871">
-        <v>118153</v>
+        <v>118061</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
@@ -15851,7 +15840,7 @@
         <v>8</v>
       </c>
       <c r="E873">
-        <v>8357</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
@@ -15868,7 +15857,7 @@
         <v>10</v>
       </c>
       <c r="E874">
-        <v>11776</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
@@ -15919,7 +15908,7 @@
         <v>28</v>
       </c>
       <c r="E877">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
@@ -15936,7 +15925,7 @@
         <v>40</v>
       </c>
       <c r="E878">
-        <v>1719</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
@@ -15987,7 +15976,7 @@
         <v>12</v>
       </c>
       <c r="E881">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
@@ -16140,7 +16129,7 @@
         <v>6</v>
       </c>
       <c r="E890">
-        <v>94089</v>
+        <v>94085</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
@@ -16174,7 +16163,7 @@
         <v>8</v>
       </c>
       <c r="E892">
-        <v>6601</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
@@ -16191,7 +16180,7 @@
         <v>10</v>
       </c>
       <c r="E893">
-        <v>10958</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
@@ -16242,7 +16231,7 @@
         <v>28</v>
       </c>
       <c r="E896">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -16259,7 +16248,7 @@
         <v>40</v>
       </c>
       <c r="E897">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
@@ -16310,7 +16299,7 @@
         <v>12</v>
       </c>
       <c r="E900">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
@@ -16361,7 +16350,7 @@
         <v>44</v>
       </c>
       <c r="E903">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
@@ -16446,7 +16435,7 @@
         <v>20</v>
       </c>
       <c r="E908">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
@@ -16463,7 +16452,7 @@
         <v>22</v>
       </c>
       <c r="E909">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
@@ -16480,7 +16469,7 @@
         <v>6</v>
       </c>
       <c r="E910">
-        <v>73564</v>
+        <v>73520</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
@@ -16514,7 +16503,7 @@
         <v>8</v>
       </c>
       <c r="E912">
-        <v>5504</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
@@ -16531,7 +16520,7 @@
         <v>10</v>
       </c>
       <c r="E913">
-        <v>9057</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
@@ -16599,7 +16588,7 @@
         <v>40</v>
       </c>
       <c r="E917">
-        <v>1850</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
@@ -16684,7 +16673,7 @@
         <v>42</v>
       </c>
       <c r="E922">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -16701,7 +16690,7 @@
         <v>44</v>
       </c>
       <c r="E923">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
@@ -16803,7 +16792,7 @@
         <v>20</v>
       </c>
       <c r="E929">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
@@ -16820,7 +16809,7 @@
         <v>22</v>
       </c>
       <c r="E930">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
@@ -16837,7 +16826,7 @@
         <v>6</v>
       </c>
       <c r="E931">
-        <v>59926</v>
+        <v>59885</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
@@ -16871,7 +16860,7 @@
         <v>8</v>
       </c>
       <c r="E933">
-        <v>5068</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
@@ -16888,7 +16877,7 @@
         <v>10</v>
       </c>
       <c r="E934">
-        <v>6396</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
@@ -16939,7 +16928,7 @@
         <v>28</v>
       </c>
       <c r="E937">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
@@ -16956,7 +16945,7 @@
         <v>40</v>
       </c>
       <c r="E938">
-        <v>1593</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
@@ -17007,7 +16996,7 @@
         <v>12</v>
       </c>
       <c r="E941">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
@@ -17075,7 +17064,7 @@
         <v>34</v>
       </c>
       <c r="E945">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
@@ -17160,7 +17149,7 @@
         <v>20</v>
       </c>
       <c r="E950">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
@@ -17194,7 +17183,7 @@
         <v>6</v>
       </c>
       <c r="E952">
-        <v>49856</v>
+        <v>49860</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
@@ -17211,7 +17200,7 @@
         <v>24</v>
       </c>
       <c r="E953">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
@@ -17228,7 +17217,7 @@
         <v>8</v>
       </c>
       <c r="E954">
-        <v>4671</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
@@ -17245,7 +17234,7 @@
         <v>10</v>
       </c>
       <c r="E955">
-        <v>3957</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
@@ -17313,7 +17302,7 @@
         <v>40</v>
       </c>
       <c r="E959">
-        <v>1341</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
@@ -17364,7 +17353,7 @@
         <v>12</v>
       </c>
       <c r="E962">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
@@ -17551,7 +17540,7 @@
         <v>6</v>
       </c>
       <c r="E973">
-        <v>38587</v>
+        <v>38574</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
@@ -17585,7 +17574,7 @@
         <v>8</v>
       </c>
       <c r="E975">
-        <v>4506</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
@@ -17602,7 +17591,7 @@
         <v>10</v>
       </c>
       <c r="E976">
-        <v>2454</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
@@ -17653,7 +17642,7 @@
         <v>28</v>
       </c>
       <c r="E979">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
@@ -17670,7 +17659,7 @@
         <v>40</v>
       </c>
       <c r="E980">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
@@ -17704,7 +17693,7 @@
         <v>32</v>
       </c>
       <c r="E982">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
@@ -17721,7 +17710,7 @@
         <v>12</v>
       </c>
       <c r="E983">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
@@ -17891,7 +17880,7 @@
         <v>22</v>
       </c>
       <c r="E993">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
@@ -17908,7 +17897,7 @@
         <v>6</v>
       </c>
       <c r="E994">
-        <v>39651</v>
+        <v>39633</v>
       </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
@@ -17942,7 +17931,7 @@
         <v>8</v>
       </c>
       <c r="E996">
-        <v>4964</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
@@ -17959,7 +17948,7 @@
         <v>10</v>
       </c>
       <c r="E997">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
@@ -18061,7 +18050,7 @@
         <v>32</v>
       </c>
       <c r="E1003">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
@@ -18146,7 +18135,7 @@
         <v>34</v>
       </c>
       <c r="E1008">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
@@ -18248,7 +18237,7 @@
         <v>22</v>
       </c>
       <c r="E1014">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
@@ -18265,7 +18254,7 @@
         <v>6</v>
       </c>
       <c r="E1015">
-        <v>42765</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
@@ -18299,7 +18288,7 @@
         <v>8</v>
       </c>
       <c r="E1017">
-        <v>5768</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
@@ -18316,7 +18305,7 @@
         <v>10</v>
       </c>
       <c r="E1018">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
@@ -18333,7 +18322,7 @@
         <v>26</v>
       </c>
       <c r="E1019">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
@@ -18384,7 +18373,7 @@
         <v>40</v>
       </c>
       <c r="E1022">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
@@ -18418,7 +18407,7 @@
         <v>32</v>
       </c>
       <c r="E1024">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
@@ -18452,7 +18441,7 @@
         <v>14</v>
       </c>
       <c r="E1026">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
@@ -18588,7 +18577,7 @@
         <v>20</v>
       </c>
       <c r="E1034">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
@@ -18605,7 +18594,7 @@
         <v>22</v>
       </c>
       <c r="E1035">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
@@ -18622,7 +18611,7 @@
         <v>6</v>
       </c>
       <c r="E1036">
-        <v>45705</v>
+        <v>45598</v>
       </c>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
@@ -18639,7 +18628,7 @@
         <v>24</v>
       </c>
       <c r="E1037">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
@@ -18656,7 +18645,7 @@
         <v>8</v>
       </c>
       <c r="E1038">
-        <v>5848</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
@@ -18758,7 +18747,7 @@
         <v>30</v>
       </c>
       <c r="E1044">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
@@ -18775,7 +18764,7 @@
         <v>32</v>
       </c>
       <c r="E1045">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
@@ -18792,7 +18781,7 @@
         <v>12</v>
       </c>
       <c r="E1046">
-        <v>1922</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
@@ -18809,7 +18798,7 @@
         <v>14</v>
       </c>
       <c r="E1047">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
@@ -18826,7 +18815,7 @@
         <v>42</v>
       </c>
       <c r="E1048">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
@@ -18843,7 +18832,7 @@
         <v>44</v>
       </c>
       <c r="E1049">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
@@ -18860,7 +18849,7 @@
         <v>34</v>
       </c>
       <c r="E1050">
-        <v>1048</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
@@ -18928,7 +18917,7 @@
         <v>20</v>
       </c>
       <c r="E1054">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
@@ -18945,7 +18934,7 @@
         <v>22</v>
       </c>
       <c r="E1055">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
@@ -18962,7 +18951,7 @@
         <v>6</v>
       </c>
       <c r="E1056">
-        <v>56999</v>
+        <v>56706</v>
       </c>
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
@@ -18979,7 +18968,7 @@
         <v>24</v>
       </c>
       <c r="E1057">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
@@ -18996,7 +18985,7 @@
         <v>8</v>
       </c>
       <c r="E1058">
-        <v>6781</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
@@ -19013,7 +19002,7 @@
         <v>10</v>
       </c>
       <c r="E1059">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
@@ -19030,7 +19019,7 @@
         <v>26</v>
       </c>
       <c r="E1060">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
@@ -19064,7 +19053,7 @@
         <v>28</v>
       </c>
       <c r="E1062">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
@@ -19081,7 +19070,7 @@
         <v>40</v>
       </c>
       <c r="E1063">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
@@ -19098,7 +19087,7 @@
         <v>30</v>
       </c>
       <c r="E1064">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
@@ -19132,7 +19121,7 @@
         <v>12</v>
       </c>
       <c r="E1066">
-        <v>1953</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
@@ -19149,7 +19138,7 @@
         <v>14</v>
       </c>
       <c r="E1067">
-        <v>454</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
@@ -19166,7 +19155,7 @@
         <v>42</v>
       </c>
       <c r="E1068">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
@@ -19183,7 +19172,7 @@
         <v>44</v>
       </c>
       <c r="E1069">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
@@ -19200,7 +19189,7 @@
         <v>34</v>
       </c>
       <c r="E1070">
-        <v>1676</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
@@ -19217,7 +19206,7 @@
         <v>16</v>
       </c>
       <c r="E1071">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
@@ -19251,7 +19240,7 @@
         <v>20</v>
       </c>
       <c r="E1073">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
@@ -19268,7 +19257,7 @@
         <v>22</v>
       </c>
       <c r="E1074">
-        <v>1044</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
@@ -19285,7 +19274,7 @@
         <v>6</v>
       </c>
       <c r="E1075">
-        <v>77151</v>
+        <v>76490</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
@@ -19319,7 +19308,7 @@
         <v>8</v>
       </c>
       <c r="E1077">
-        <v>7180</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
@@ -19336,7 +19325,7 @@
         <v>10</v>
       </c>
       <c r="E1078">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
@@ -19353,7 +19342,7 @@
         <v>26</v>
       </c>
       <c r="E1079">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
@@ -19370,7 +19359,7 @@
         <v>46</v>
       </c>
       <c r="E1080">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
@@ -19387,7 +19376,7 @@
         <v>28</v>
       </c>
       <c r="E1081">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
@@ -19404,7 +19393,7 @@
         <v>40</v>
       </c>
       <c r="E1082">
-        <v>367</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
@@ -19421,7 +19410,7 @@
         <v>30</v>
       </c>
       <c r="E1083">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
@@ -19438,7 +19427,7 @@
         <v>32</v>
       </c>
       <c r="E1084">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
@@ -19455,7 +19444,7 @@
         <v>12</v>
       </c>
       <c r="E1085">
-        <v>2049</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
@@ -19472,7 +19461,7 @@
         <v>14</v>
       </c>
       <c r="E1086">
-        <v>363</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
@@ -19489,7 +19478,7 @@
         <v>42</v>
       </c>
       <c r="E1087">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
@@ -19506,7 +19495,7 @@
         <v>44</v>
       </c>
       <c r="E1088">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
@@ -19523,7 +19512,7 @@
         <v>34</v>
       </c>
       <c r="E1089">
-        <v>1682</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
@@ -19540,7 +19529,7 @@
         <v>16</v>
       </c>
       <c r="E1090">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
@@ -19608,7 +19597,7 @@
         <v>20</v>
       </c>
       <c r="E1094">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
@@ -19625,7 +19614,7 @@
         <v>22</v>
       </c>
       <c r="E1095">
-        <v>1317</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
@@ -19642,7 +19631,7 @@
         <v>6</v>
       </c>
       <c r="E1096">
-        <v>102376</v>
+        <v>100364</v>
       </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
@@ -19659,7 +19648,7 @@
         <v>24</v>
       </c>
       <c r="E1097">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
@@ -19676,7 +19665,7 @@
         <v>8</v>
       </c>
       <c r="E1098">
-        <v>5915</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
@@ -19693,7 +19682,7 @@
         <v>10</v>
       </c>
       <c r="E1099">
-        <v>531</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
@@ -19710,7 +19699,7 @@
         <v>26</v>
       </c>
       <c r="E1100">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
@@ -19727,7 +19716,7 @@
         <v>46</v>
       </c>
       <c r="E1101">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
@@ -19744,7 +19733,7 @@
         <v>28</v>
       </c>
       <c r="E1102">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
@@ -19761,7 +19750,7 @@
         <v>40</v>
       </c>
       <c r="E1103">
-        <v>218</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
@@ -19778,7 +19767,7 @@
         <v>30</v>
       </c>
       <c r="E1104">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
@@ -19795,7 +19784,7 @@
         <v>32</v>
       </c>
       <c r="E1105">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
@@ -19812,7 +19801,7 @@
         <v>12</v>
       </c>
       <c r="E1106">
-        <v>1493</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
@@ -19829,7 +19818,7 @@
         <v>14</v>
       </c>
       <c r="E1107">
-        <v>317</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
@@ -19846,7 +19835,7 @@
         <v>42</v>
       </c>
       <c r="E1108">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
@@ -19863,7 +19852,7 @@
         <v>44</v>
       </c>
       <c r="E1109">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
@@ -19880,7 +19869,7 @@
         <v>34</v>
       </c>
       <c r="E1110">
-        <v>1329</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
@@ -19897,7 +19886,7 @@
         <v>16</v>
       </c>
       <c r="E1111">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
@@ -19931,7 +19920,7 @@
         <v>18</v>
       </c>
       <c r="E1113">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
@@ -19948,7 +19937,7 @@
         <v>38</v>
       </c>
       <c r="E1114">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
@@ -19965,7 +19954,7 @@
         <v>20</v>
       </c>
       <c r="E1115">
-        <v>275</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
@@ -19982,10 +19971,368 @@
         <v>22</v>
       </c>
       <c r="E1116">
-        <v>1154</v>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>2021</v>
+      </c>
+      <c r="B1117">
+        <v>13</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1117">
+        <v>99224</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>2021</v>
+      </c>
+      <c r="B1118">
+        <v>13</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1118">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>2021</v>
+      </c>
+      <c r="B1119">
+        <v>13</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1119">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>2021</v>
+      </c>
+      <c r="B1120">
+        <v>13</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1120">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>2021</v>
+      </c>
+      <c r="B1121">
+        <v>13</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1121">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>2021</v>
+      </c>
+      <c r="B1122">
+        <v>13</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1122">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>2021</v>
+      </c>
+      <c r="B1123">
+        <v>13</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1123">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>2021</v>
+      </c>
+      <c r="B1124">
+        <v>13</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1124">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>2021</v>
+      </c>
+      <c r="B1125">
+        <v>13</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1125">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>2021</v>
+      </c>
+      <c r="B1126">
+        <v>13</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>2021</v>
+      </c>
+      <c r="B1127">
+        <v>13</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1127">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>2021</v>
+      </c>
+      <c r="B1128">
+        <v>13</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1128">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>2021</v>
+      </c>
+      <c r="B1129">
+        <v>13</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1129">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>2021</v>
+      </c>
+      <c r="B1130">
+        <v>13</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1130">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>2021</v>
+      </c>
+      <c r="B1131">
+        <v>13</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1131">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>2021</v>
+      </c>
+      <c r="B1132">
+        <v>13</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1132">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>2021</v>
+      </c>
+      <c r="B1133">
+        <v>13</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>2021</v>
+      </c>
+      <c r="B1134">
+        <v>13</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>2021</v>
+      </c>
+      <c r="B1135">
+        <v>13</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>2021</v>
+      </c>
+      <c r="B1136">
+        <v>13</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1136">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>2021</v>
+      </c>
+      <c r="B1137">
+        <v>13</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1137">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>